--- a/10min data 6-7 Jan 2020.xlsx
+++ b/10min data 6-7 Jan 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterParker\Documents\Python Scripts\Chae\Github\variability-interpolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A2CE6-C8CF-4464-BB33-67B099F45318}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912B03C-1BDC-48CE-835B-6C32705902CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1109,28 +1109,28 @@
         <v>216</v>
       </c>
       <c r="R2">
-        <f>10*(O2-N2)/(P2-N2)</f>
-        <v>4.362017804154303</v>
+        <f>IF(O2&gt;V2,10*(O2-N2)/(P2+N2),10-10*(O2-N2)/(P2+N2))</f>
+        <v>1.7396449704142012</v>
       </c>
       <c r="S2">
         <f>IF(O2&lt;V2,(R2/60)*(P2-$V$2),($V$2-N2)*(10-R2)/60)</f>
-        <v>-15.830113578225728</v>
+        <v>-7.4343195266272195</v>
       </c>
       <c r="T2">
         <f>IF(O2&gt;$V$2,$V$2*(10/60),O2*(10/60))</f>
-        <v>66.833333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U2" s="4">
         <f>IF(S2/T2&gt;0,S2/T2,0)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>AVERAGE(O2:O146)*1</f>
-        <v>808.74482758620695</v>
+        <f>200</f>
+        <v>200</v>
       </c>
       <c r="W2" s="4">
         <f>AVERAGE(U2:U147)</f>
-        <v>0.14105848373380245</v>
+        <v>2.2903688700208959E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,20 +1186,20 @@
         <v>209</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="0">10*(O3-N3)/(P3-N3)</f>
-        <v>4.612903225806452</v>
+        <f t="shared" ref="R3:R66" si="0">IF(O3&gt;V3,10*(O3-N3)/(P3+N3),10-10*(O3-N3)/(P3+N3))</f>
+        <v>1.5376344086021505</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="1">IF(O3&lt;V3,(R3/60)*(P3-$V$2),($V$2-N3)*(10-R3)/60)</f>
-        <v>44.779777530589541</v>
+        <v>-15.514336917562725</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T66" si="2">IF(O3&gt;$V$2,$V$2*(10/60),O3*(10/60))</f>
-        <v>75.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" ref="U3:U66" si="3">IF(S3/T3&gt;0,S3/T3,0)</f>
-        <v>0.59310963616674894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,19 +1256,19 @@
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>4.5687645687645686</v>
+        <v>2.0696937697993665</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>49.763226428743678</v>
+        <v>-7.7981344596972901</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
-        <v>75.833333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="3"/>
-        <v>0.65621837048892762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,19 +1325,19 @@
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>4.8155737704918034</v>
+        <v>2.0085470085470085</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>40.41647588091201</v>
+        <v>-18.779914529914532</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="3"/>
-        <v>0.42100495709283342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,19 +1394,19 @@
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>5.246636771300448</v>
+        <v>1.8396226415094339</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>31.351981856605338</v>
+        <v>-28.969339622641506</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
-        <v>107.83333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="3"/>
-        <v>0.29074480856202789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,19 +1463,19 @@
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>5.8153241650294696</v>
+        <v>2.22389181066867</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>27.740552808075336</v>
+        <v>-27.345980465815177</v>
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
-        <v>117.83333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="3"/>
-        <v>0.23542194745184161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,19 +1532,19 @@
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>6.8012924071082388</v>
+        <v>3.4144363341443635</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>26.748916494902797</v>
+        <v>-11.744255204109217</v>
       </c>
       <c r="T8">
         <f t="shared" si="2"/>
-        <v>121.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="3"/>
-        <v>0.22045810297996812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,19 +1601,19 @@
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>4.3292682926829267</v>
+        <v>2.5959780621572213</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>55.738078216989074</v>
+        <v>-2.3446069469835464</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>83.833333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="3"/>
-        <v>0.66486773221060524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1670,19 +1670,19 @@
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>8.8311688311688314</v>
+        <v>1.7346938775510203</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>3.4820420958351992</v>
+        <v>-59.234693877551017</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="3"/>
-        <v>2.5832935015320663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,19 +1739,19 @@
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
-        <v>3.4297520661157024</v>
+        <v>2.2232142857142856</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>66.988586491878038</v>
+        <v>0.38883928571428572</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>74.333333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="3"/>
-        <v>0.90119174652750733</v>
+        <v>1.1665178571428573E-2</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,19 +1808,19 @@
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>6.0623229461756374</v>
+        <v>3.8909090909090911</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>40.147559506365802</v>
+        <v>0.30545454545454548</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>104.16666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="3"/>
-        <v>0.38541657126111173</v>
+        <v>9.1636363636363651E-3</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,19 +1877,19 @@
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>3.1938325991189429</v>
+        <v>1.3229927007299269</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>55.327882424426555</v>
+        <v>-17.498631386861312</v>
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
-        <v>77.666666666666657</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="3"/>
-        <v>0.71237616855484842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1946,19 +1946,19 @@
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>3.7647058823529411</v>
+        <v>1.4883720930232558</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>57.026423258958758</v>
+        <v>-8.5116279069767451</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>64.666666666666657</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" si="3"/>
-        <v>0.88185190606637265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,19 +2015,19 @@
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>5.1219512195121952</v>
+        <v>1.6535433070866141</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>44.776002242781054</v>
+        <v>-8.0682414698162734</v>
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" si="3"/>
-        <v>0.69962503504345397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,19 +2084,19 @@
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>5.375</v>
+        <v>3.0979827089337175</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>51.009497126436791</v>
+        <v>6.0967819404418835</v>
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
-        <v>60.333333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" si="3"/>
-        <v>0.84546127833873141</v>
+        <v>0.18290345821325654</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,19 +2153,19 @@
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>2.2950819672131146</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>53.537885057471271</v>
+        <v>1.1557377049180326</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>59.833333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="3"/>
-        <v>0.89478359427528598</v>
+        <v>3.4672131147540981E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,19 +2222,19 @@
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>1.4514407684098185</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>62.644413793103453</v>
+        <v>-7.9786552828175017</v>
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
-        <v>65.333333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="3"/>
-        <v>0.95884306826178767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,19 +2291,19 @@
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
-        <v>5.8421052631578947</v>
+        <v>5.8115183246073299</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>55.906001209921357</v>
+        <v>13.821989528795813</v>
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
-        <v>74.333333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="3"/>
-        <v>0.7520986709854891</v>
+        <v>0.41465968586387442</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
       </c>
       <c r="R20">
         <f t="shared" si="0"/>
-        <v>4.615384615384615</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>36.951458885941648</v>
+        <v>-32.352845528455283</v>
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
-        <v>68.166666666666657</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="3"/>
-        <v>0.54207519148080663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="R21">
         <f t="shared" si="0"/>
-        <v>6.2453531598513008</v>
+        <v>2.5225225225225225</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>25.765940264068714</v>
+        <v>-24.551051051051051</v>
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
-        <v>122.16666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="3"/>
-        <v>0.21090810584503725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2498,19 +2498,19 @@
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
-        <v>7.1129707112970708</v>
+        <v>1.0384850335980451</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
-        <v>5.2806088587505444</v>
+        <v>-74.529932803909588</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U22" s="4">
         <f t="shared" si="3"/>
-        <v>3.9176328641342684E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,19 +2567,19 @@
       </c>
       <c r="R23">
         <f t="shared" si="0"/>
-        <v>6.5346534653465342</v>
+        <v>1.2555485098287889</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>9.9192557186753199</v>
+        <v>-63.688755020080322</v>
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" si="3"/>
-        <v>7.3590003029364609E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,19 +2636,19 @@
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
-        <v>4.7379912663755457</v>
+        <v>1.624251497005988</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
-        <v>32.426675199518151</v>
+        <v>-33.363398203592816</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>109.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="3"/>
-        <v>0.29658544389803188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,19 +2705,19 @@
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>7.4127906976744189</v>
+        <v>1.66015625</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>9.1735899492114417</v>
+        <v>-55.04296875</v>
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="3"/>
-        <v>6.8057980487549505E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>4.4680851063829783</v>
+        <v>1.4052044609665428</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
-        <v>32.06157984837369</v>
+        <v>-37.387360594795538</v>
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
-        <v>108.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="3"/>
-        <v>0.29595304475421869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2843,19 +2843,19 @@
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>2.4127906976744184</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
-        <v>20.54137931034483</v>
+        <v>-30.222383720930232</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
-        <v>128.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="3"/>
-        <v>0.15985509190929828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2912,19 +2912,19 @@
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>5.020833333333333</v>
+        <v>1.8011958146487295</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
-        <v>31.513546455938702</v>
+        <v>-31.292102640757353</v>
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
-        <v>111.66666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="3"/>
-        <v>0.2822108637845257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2981,19 +2981,19 @@
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>4.8769574944071588</v>
+        <v>2.106280193236715</v>
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
-        <v>43.950993854303277</v>
+        <v>-12.366827697262478</v>
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
-        <v>85.333333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="3"/>
-        <v>0.51505070923011653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3050,19 +3050,19 @@
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>5.465686274509804</v>
+        <v>1.5660112359550562</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
-        <v>22.727856659905346</v>
+        <v>-43.294475655430709</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>121.83333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="3"/>
-        <v>0.18654875507446247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,19 +3119,19 @@
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>6.5295629820051415</v>
+        <v>1.7035546613011401</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
-        <v>14.90811984753125</v>
+        <v>-48.534205231388327</v>
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
-        <v>134.16666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="3"/>
-        <v>0.11111642122383542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,19 +3188,19 @@
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
-        <v>8.6255924170616112</v>
+        <v>1.0891681627767804</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
-        <v>1.8037914691943144</v>
+        <v>-78.71234789547178</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="3"/>
-        <v>1.3382155218806951E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,19 +3257,19 @@
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
-        <v>8.0310880829015545</v>
+        <v>0.90696313633703918</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>1.665201596093147</v>
+        <v>-84.565242832065536</v>
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="3"/>
-        <v>1.2353970295400604E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
-        <v>7.1387283236994223</v>
+        <v>1.6122715404699739</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
-        <v>10.288409408012759</v>
+        <v>-54.939621409921664</v>
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U34" s="4">
         <f t="shared" si="3"/>
-        <v>7.6328718703918386E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,19 +3395,19 @@
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
-        <v>8.4259259259259256</v>
+        <v>1.0794780545670226</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
-        <v>1.9346636866751827</v>
+        <v>-79.541320680110701</v>
       </c>
       <c r="T35">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="3"/>
-        <v>1.4353083598316755E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3464,19 +3464,19 @@
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
-        <v>6.1636556854410198</v>
+        <v>6.1505832449628848</v>
       </c>
       <c r="S36">
         <f t="shared" si="1"/>
-        <v>51.646454615412814</v>
+        <v>12.767232237539766</v>
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
-        <v>96.833333333333329</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" si="3"/>
-        <v>0.53335409241390175</v>
+        <v>0.38301696712619304</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3533,19 +3533,19 @@
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
-        <v>4.5391705069124422</v>
+        <v>1.5061162079510704</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
-        <v>33.833918639758465</v>
+        <v>-33.550840978593271</v>
       </c>
       <c r="T37">
         <f t="shared" si="2"/>
-        <v>105.66666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" si="3"/>
-        <v>0.32019481362547447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3602,19 +3602,19 @@
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
-        <v>7.8978388998035367</v>
+        <v>2.9364499634769907</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
-        <v>13.269710724205677</v>
+        <v>-27.076941806671538</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U38" s="4">
         <f t="shared" si="3"/>
-        <v>9.8446706092531117E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,19 +3671,19 @@
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
-        <v>5.6756756756756754</v>
+        <v>5.4973821989528799</v>
       </c>
       <c r="S39">
         <f t="shared" si="1"/>
-        <v>57.20683442062753</v>
+        <v>13.883071553228621</v>
       </c>
       <c r="T39">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="3"/>
-        <v>0.63563149356252813</v>
+        <v>0.41649214659685868</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,15 +3740,15 @@
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
+        <v>0.17993456924754633</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
-        <v>-6.5230363984674282</v>
+        <v>-111.45774263904035</v>
       </c>
       <c r="T40">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U40" s="4">
         <f t="shared" si="3"/>
@@ -3809,15 +3809,15 @@
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
-        <v>6.4516129032258061</v>
+        <v>0.33240997229916897</v>
       </c>
       <c r="S41">
         <f t="shared" si="1"/>
-        <v>-2.7946607341490517</v>
+        <v>-105.69898430286243</v>
       </c>
       <c r="T41">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" si="3"/>
@@ -3878,15 +3878,15 @@
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
-        <v>7.7692307692307692</v>
+        <v>0.57451649601820254</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
-        <v>-0.19538461538461332</v>
+        <v>-96.454114524080396</v>
       </c>
       <c r="T42">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U42" s="4">
         <f t="shared" si="3"/>
@@ -3947,19 +3947,19 @@
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
-        <v>7.7338877338877339</v>
+        <v>7.7018633540372674</v>
       </c>
       <c r="S43">
         <f t="shared" si="1"/>
-        <v>30.469572490262145</v>
+        <v>7.5838509316770173</v>
       </c>
       <c r="T43">
         <f t="shared" si="2"/>
-        <v>124.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U43" s="4">
         <f t="shared" si="3"/>
-        <v>0.24506358571256417</v>
+        <v>0.22751552795031055</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4016,15 +4016,15 @@
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
-        <v>5.3030303030303028</v>
+        <v>0.19188596491228072</v>
       </c>
       <c r="S44">
         <f t="shared" si="1"/>
-        <v>-5.4997735980494564</v>
+        <v>-110.99515716374269</v>
       </c>
       <c r="T44">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U44" s="4">
         <f t="shared" si="3"/>
@@ -4085,15 +4085,15 @@
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
-        <v>4.0740740740740744</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="S45">
         <f t="shared" si="1"/>
-        <v>-8.7165602383993139</v>
+        <v>-114.78373015873017</v>
       </c>
       <c r="T45">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U45" s="4">
         <f t="shared" si="3"/>
@@ -4154,19 +4154,19 @@
       </c>
       <c r="R46">
         <f t="shared" si="0"/>
-        <v>8.0281690140845079</v>
+        <v>0.65592635212888373</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
-        <v>0.35311639954670715</v>
+        <v>-93.129267357115452</v>
       </c>
       <c r="T46">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U46" s="4">
         <f t="shared" si="3"/>
-        <v>2.6197365658631104E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -4223,19 +4223,19 @@
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
-        <v>8.4191176470588243</v>
+        <v>1.4100985221674878</v>
       </c>
       <c r="S47">
         <f t="shared" si="1"/>
-        <v>3.4975659229208924</v>
+        <v>-68.146551724137936</v>
       </c>
       <c r="T47">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U47" s="4">
         <f t="shared" si="3"/>
-        <v>2.5948104793645125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -4292,19 +4292,19 @@
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
-        <v>7.8037383177570092</v>
+        <v>0.97660818713450293</v>
       </c>
       <c r="S48">
         <f t="shared" si="1"/>
-        <v>2.2235256203673885</v>
+        <v>-82.41364522417156</v>
       </c>
       <c r="T48">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U48" s="4">
         <f t="shared" si="3"/>
-        <v>1.6496122469212643E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -4361,15 +4361,15 @@
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
-        <v>6.8085106382978724</v>
+        <v>0.35476718403547675</v>
       </c>
       <c r="S49">
         <f t="shared" si="1"/>
-        <v>-2.4603815113719705</v>
+        <v>-105.29379157427937</v>
       </c>
       <c r="T49">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U49" s="4">
         <f t="shared" si="3"/>
@@ -4430,15 +4430,15 @@
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
-        <v>6.117647058823529</v>
+        <v>0.28618602091359385</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
-        <v>-3.7047464503042562</v>
+        <v>-107.82333516785911</v>
       </c>
       <c r="T50">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U50" s="4">
         <f t="shared" si="3"/>
@@ -4499,15 +4499,15 @@
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
-        <v>5.443037974683544</v>
+        <v>0.23458810692853246</v>
       </c>
       <c r="S51">
         <f t="shared" si="1"/>
-        <v>-5.1839371453513703</v>
+        <v>-110.18639752682307</v>
       </c>
       <c r="T51">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U51" s="4">
         <f t="shared" si="3"/>
@@ -4568,15 +4568,15 @@
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
-        <v>5.875</v>
+        <v>0.25599128540305011</v>
       </c>
       <c r="S52">
         <f t="shared" si="1"/>
-        <v>-4.7612931034482715</v>
+        <v>-110.10729847494554</v>
       </c>
       <c r="T52">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U52" s="4">
         <f t="shared" si="3"/>
@@ -4637,15 +4637,15 @@
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
-        <v>5.6164383561643838</v>
+        <v>0.22294725394235998</v>
       </c>
       <c r="S53">
         <f t="shared" si="1"/>
-        <v>-5.4250354274917294</v>
+        <v>-111.29545042595615</v>
       </c>
       <c r="T53">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U53" s="4">
         <f t="shared" si="3"/>
@@ -4706,15 +4706,15 @@
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
-        <v>6.2162162162162158</v>
+        <v>0.25191675794085433</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
-        <v>-4.2413171792482105</v>
+        <v>-109.82840452719969</v>
       </c>
       <c r="T54">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U54" s="4">
         <f t="shared" si="3"/>
@@ -4775,15 +4775,15 @@
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
-        <v>5.3125</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="S55">
         <f t="shared" si="1"/>
-        <v>-4.7855603448275819</v>
+        <v>-108.56481481481481</v>
       </c>
       <c r="T55">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U55" s="4">
         <f t="shared" si="3"/>
@@ -4844,15 +4844,15 @@
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
-        <v>5.4901960784313726</v>
+        <v>0.30634573304157547</v>
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
-        <v>-4.0780031552850984</v>
+        <v>-107.11487964989058</v>
       </c>
       <c r="T56">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U56" s="4">
         <f t="shared" si="3"/>
@@ -4913,15 +4913,15 @@
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
-        <v>5.9493670886075947</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="S57">
         <f t="shared" si="1"/>
-        <v>-4.3379019351083921</v>
+        <v>-109.27799086757992</v>
       </c>
       <c r="T57">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U57" s="4">
         <f t="shared" si="3"/>
@@ -4982,15 +4982,15 @@
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
-        <v>5.3571428571428568</v>
+        <v>0.24483133841131666</v>
       </c>
       <c r="S58">
         <f t="shared" si="1"/>
-        <v>-5.2816502463054151</v>
+        <v>-110.07081973159231</v>
       </c>
       <c r="T58">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="3"/>
@@ -5051,15 +5051,15 @@
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
-        <v>5.32258064516129</v>
+        <v>0.1795429815016322</v>
       </c>
       <c r="S59">
         <f t="shared" si="1"/>
-        <v>-6.1784946236559097</v>
+        <v>-112.60790714544797</v>
       </c>
       <c r="T59">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U59" s="4">
         <f t="shared" si="3"/>
@@ -5120,15 +5120,15 @@
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
-        <v>5.6578947368421053</v>
+        <v>0.23318872017353579</v>
       </c>
       <c r="S60">
         <f t="shared" si="1"/>
-        <v>-5.4460980036297597</v>
+        <v>-111.34164859002171</v>
       </c>
       <c r="T60">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U60" s="4">
         <f t="shared" si="3"/>
@@ -5189,19 +5189,19 @@
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
-        <v>8.6904761904761898</v>
+        <v>1.3192771084337349</v>
       </c>
       <c r="S61">
         <f t="shared" si="1"/>
-        <v>2.2860974274767401</v>
+        <v>-72.91807228915664</v>
       </c>
       <c r="T61">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U61" s="4">
         <f t="shared" si="3"/>
-        <v>1.6960336680976601E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -5258,19 +5258,19 @@
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.1687537268932617</v>
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
-        <v>3.0914942528735652</v>
+        <v>-75.948717948717956</v>
       </c>
       <c r="T62">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U62" s="4">
         <f t="shared" si="3"/>
-        <v>2.2935498175120254E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -5327,15 +5327,15 @@
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
-        <v>6.125</v>
+        <v>0.26746724890829693</v>
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
-        <v>-4.3435632183908011</v>
+        <v>-109.65320232896653</v>
       </c>
       <c r="T63">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U63" s="4">
         <f t="shared" si="3"/>
@@ -5396,19 +5396,19 @@
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
-        <v>8.0995475113122168</v>
+        <v>1.0510863182618908</v>
       </c>
       <c r="S64">
         <f t="shared" si="1"/>
-        <v>2.145763769698863</v>
+        <v>-80.689371697005285</v>
       </c>
       <c r="T64">
         <f t="shared" si="2"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U64" s="4">
         <f t="shared" si="3"/>
-        <v>1.5919214786966701E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -5469,15 +5469,15 @@
       </c>
       <c r="S65">
         <f t="shared" si="1"/>
-        <v>46.499261691905367</v>
+        <v>11.49911816578483</v>
       </c>
       <c r="T65">
         <f t="shared" si="2"/>
-        <v>103.16666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U65" s="4">
         <f t="shared" si="3"/>
-        <v>0.45071982253866272</v>
+        <v>0.34497354497354499</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -5534,19 +5534,19 @@
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
-        <v>6.7326732673267324</v>
+        <v>0.48745519713261648</v>
       </c>
       <c r="S66">
         <f t="shared" si="1"/>
-        <v>8.8078866507340425</v>
+        <v>-70.868458781362008</v>
       </c>
       <c r="T66">
         <f t="shared" si="2"/>
-        <v>119.16666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U66" s="4">
         <f t="shared" si="3"/>
-        <v>7.3912335530635323E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -5602,20 +5602,20 @@
         <v>192</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R130" si="4">10*(O67-N67)/(P67-N67)</f>
-        <v>6.8181818181818183</v>
+        <f t="shared" ref="R67:R130" si="4">IF(O67&gt;V67,10*(O67-N67)/(P67+N67),10-10*(O67-N67)/(P67+N67))</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S130" si="5">IF(O67&lt;V67,(R67/60)*(P67-$V$2),($V$2-N67)*(10-R67)/60)</f>
-        <v>8.1001044932079438</v>
+        <v>-72.742857142857147</v>
       </c>
       <c r="T67">
         <f t="shared" ref="T67:T130" si="6">IF(O67&gt;$V$2,$V$2*(10/60),O67*(10/60))</f>
-        <v>119.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U67" s="4">
         <f t="shared" ref="U67:U130" si="7">IF(S67/T67&gt;0,S67/T67,0)</f>
-        <v>6.7877970613474392E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -5672,19 +5672,19 @@
       </c>
       <c r="R68">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <v>0.42796005706134094</v>
       </c>
       <c r="S68">
         <f t="shared" si="5"/>
-        <v>8.4858237547892745</v>
+        <v>-72.747503566333805</v>
       </c>
       <c r="T68">
         <f t="shared" si="6"/>
-        <v>119.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U68" s="4">
         <f t="shared" si="7"/>
-        <v>7.1110254928401742E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -5741,19 +5741,19 @@
       </c>
       <c r="R69">
         <f t="shared" si="4"/>
-        <v>3.8951310861423223</v>
+        <v>0.63842848373235117</v>
       </c>
       <c r="S69">
         <f t="shared" si="5"/>
-        <v>12.997757113952391</v>
+        <v>-75.048598322078988</v>
       </c>
       <c r="T69">
         <f t="shared" si="6"/>
-        <v>130.83333333333331</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U69" s="4">
         <f t="shared" si="7"/>
-        <v>9.9345914246769876E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -5810,15 +5810,15 @@
       </c>
       <c r="R70">
         <f t="shared" si="4"/>
-        <v>5.7608695652173916</v>
+        <v>0.29346622369878184</v>
       </c>
       <c r="S70">
         <f t="shared" si="5"/>
-        <v>-3.4093328335832043</v>
+        <v>-106.28654485049833</v>
       </c>
       <c r="T70">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U70" s="4">
         <f t="shared" si="7"/>
@@ -5879,15 +5879,15 @@
       </c>
       <c r="R71">
         <f t="shared" si="4"/>
-        <v>5.5769230769230766</v>
+        <v>0.3197353914002205</v>
       </c>
       <c r="S71">
         <f t="shared" si="5"/>
-        <v>-3.4098364279398723</v>
+        <v>-105.67622197721425</v>
       </c>
       <c r="T71">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U71" s="4">
         <f t="shared" si="7"/>
@@ -5948,15 +5948,15 @@
       </c>
       <c r="R72">
         <f t="shared" si="4"/>
-        <v>5.520833333333333</v>
+        <v>0.29120879120879123</v>
       </c>
       <c r="S72">
         <f t="shared" si="5"/>
-        <v>-3.9756465517241337</v>
+        <v>-107.12032967032967</v>
       </c>
       <c r="T72">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U72" s="4">
         <f t="shared" si="7"/>
@@ -6017,15 +6017,15 @@
       </c>
       <c r="R73">
         <f t="shared" si="4"/>
-        <v>5.5813953488372094</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="S73">
         <f t="shared" si="5"/>
-        <v>-4.4373964180700307</v>
+        <v>-108.56578947368421</v>
       </c>
       <c r="T73">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U73" s="4">
         <f t="shared" si="7"/>
@@ -6086,15 +6086,15 @@
       </c>
       <c r="R74">
         <f t="shared" si="4"/>
-        <v>6.3636363636363633</v>
+        <v>0.34825870646766172</v>
       </c>
       <c r="S74">
         <f t="shared" si="5"/>
-        <v>-2.8033437826541245</v>
+        <v>-105.36484245439468</v>
       </c>
       <c r="T74">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U74" s="4">
         <f t="shared" si="7"/>
@@ -6155,15 +6155,15 @@
       </c>
       <c r="R75">
         <f t="shared" si="4"/>
-        <v>6.125</v>
+        <v>0.26864035087719296</v>
       </c>
       <c r="S75">
         <f t="shared" si="5"/>
-        <v>-4.0852298850574682</v>
+        <v>-108.99122807017542</v>
       </c>
       <c r="T75">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U75" s="4">
         <f t="shared" si="7"/>
@@ -6224,15 +6224,15 @@
       </c>
       <c r="R76">
         <f t="shared" si="4"/>
-        <v>5.1162790697674421</v>
+        <v>0.24017467248908297</v>
       </c>
       <c r="S76">
         <f t="shared" si="5"/>
-        <v>-5.2300721732157136</v>
+        <v>-109.47270742358079</v>
       </c>
       <c r="T76">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U76" s="4">
         <f t="shared" si="7"/>
@@ -6293,19 +6293,19 @@
       </c>
       <c r="R77">
         <f t="shared" si="4"/>
-        <v>8.5093167701863361</v>
+        <v>1.7061021170610211</v>
       </c>
       <c r="S77">
         <f t="shared" si="5"/>
-        <v>4.1427286356821584</v>
+        <v>-61.098381070983805</v>
       </c>
       <c r="T77">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U77" s="4">
         <f t="shared" si="7"/>
-        <v>3.0734504835449383E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -6362,19 +6362,19 @@
       </c>
       <c r="R78">
         <f t="shared" si="4"/>
-        <v>8.4051724137931032</v>
+        <v>7.9591836734693882</v>
       </c>
       <c r="S78">
         <f t="shared" si="5"/>
-        <v>20.805717399920734</v>
+        <v>5.9183673469387745</v>
       </c>
       <c r="T78">
         <f t="shared" si="6"/>
-        <v>134.33333333333331</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U78" s="4">
         <f t="shared" si="7"/>
-        <v>0.1548812709671519</v>
+        <v>0.17755102040816326</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -6431,15 +6431,15 @@
       </c>
       <c r="R79">
         <f t="shared" si="4"/>
-        <v>4.9206349206349209</v>
+        <v>0.167658193618172</v>
       </c>
       <c r="S79">
         <f t="shared" si="5"/>
-        <v>-7.1327130085750721</v>
+        <v>-113.56354786371011</v>
       </c>
       <c r="T79">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U79" s="4">
         <f t="shared" si="7"/>
@@ -6500,15 +6500,15 @@
       </c>
       <c r="R80">
         <f t="shared" si="4"/>
-        <v>5.6578947368421053</v>
+        <v>0.23394994559303592</v>
       </c>
       <c r="S80">
         <f t="shared" si="5"/>
-        <v>-5.228992740471865</v>
+        <v>-110.84466811751903</v>
       </c>
       <c r="T80">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U80" s="4">
         <f t="shared" si="7"/>
@@ -6569,15 +6569,15 @@
       </c>
       <c r="R81">
         <f t="shared" si="4"/>
-        <v>5.645161290322581</v>
+        <v>0.19104803493449782</v>
       </c>
       <c r="S81">
         <f t="shared" si="5"/>
-        <v>-5.5346496106785272</v>
+        <v>-111.98553493449781</v>
       </c>
       <c r="T81">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U81" s="4">
         <f t="shared" si="7"/>
@@ -6638,15 +6638,15 @@
       </c>
       <c r="R82">
         <f t="shared" si="4"/>
-        <v>4.7619047619047619</v>
+        <v>0.16260162601626016</v>
       </c>
       <c r="S82">
         <f t="shared" si="5"/>
-        <v>-7.1810071154898685</v>
+        <v>-113.29403794037941</v>
       </c>
       <c r="T82">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U82" s="4">
         <f t="shared" si="7"/>
@@ -6707,15 +6707,15 @@
       </c>
       <c r="R83">
         <f t="shared" si="4"/>
-        <v>5.4285714285714288</v>
+        <v>0.20607375271149675</v>
       </c>
       <c r="S83">
         <f t="shared" si="5"/>
-        <v>-5.9622988505747081</v>
+        <v>-112.14045553145337</v>
       </c>
       <c r="T83">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U83" s="4">
         <f t="shared" si="7"/>
@@ -6776,15 +6776,15 @@
       </c>
       <c r="R84">
         <f t="shared" si="4"/>
-        <v>4.7368421052631575</v>
+        <v>0.14665942422596415</v>
       </c>
       <c r="S84">
         <f t="shared" si="5"/>
-        <v>-7.3030852994555309</v>
+        <v>-113.64186130726054</v>
       </c>
       <c r="T84">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U84" s="4">
         <f t="shared" si="7"/>
@@ -6845,15 +6845,15 @@
       </c>
       <c r="R85">
         <f t="shared" si="4"/>
-        <v>4.8571428571428568</v>
+        <v>0.18418201516793067</v>
       </c>
       <c r="S85">
         <f t="shared" si="5"/>
-        <v>-6.7933004926108334</v>
+        <v>-112.55471289274105</v>
       </c>
       <c r="T85">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U85" s="4">
         <f t="shared" si="7"/>
@@ -6914,15 +6914,15 @@
       </c>
       <c r="R86">
         <f t="shared" si="4"/>
-        <v>4.7058823529411766</v>
+        <v>0.12965964343598055</v>
       </c>
       <c r="S86">
         <f t="shared" si="5"/>
-        <v>-8.0519269776876214</v>
+        <v>-115.15397082658023</v>
       </c>
       <c r="T86">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U86" s="4">
         <f t="shared" si="7"/>
@@ -6983,19 +6983,19 @@
       </c>
       <c r="R87">
         <f t="shared" si="4"/>
-        <v>7.1515151515151514</v>
+        <v>2.548596112311015</v>
       </c>
       <c r="S87">
         <f t="shared" si="5"/>
-        <v>17.173744339951238</v>
+        <v>-30.674946004319654</v>
       </c>
       <c r="T87">
         <f t="shared" si="6"/>
-        <v>133.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U87" s="4">
         <f t="shared" si="7"/>
-        <v>0.12864227970000927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -7052,19 +7052,19 @@
       </c>
       <c r="R88">
         <f t="shared" si="4"/>
-        <v>8.4210526315789469</v>
+        <v>1.3708690330477356</v>
       </c>
       <c r="S88">
         <f t="shared" si="5"/>
-        <v>3.2827586206896573</v>
+        <v>-69.608323133414927</v>
       </c>
       <c r="T88">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U88" s="4">
         <f t="shared" si="7"/>
-        <v>2.4354470102670823E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -7121,19 +7121,19 @@
       </c>
       <c r="R89">
         <f t="shared" si="4"/>
-        <v>8.6181818181818191</v>
+        <v>1.4638665843113032</v>
       </c>
       <c r="S89">
         <f t="shared" si="5"/>
-        <v>3.1492748171368854</v>
+        <v>-67.150916203417751</v>
       </c>
       <c r="T89">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U89" s="4">
         <f t="shared" si="7"/>
-        <v>2.3364166617569078E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -7190,19 +7190,19 @@
       </c>
       <c r="R90">
         <f t="shared" si="4"/>
-        <v>8.1736526946107784</v>
+        <v>1.7704280155642023</v>
       </c>
       <c r="S90">
         <f t="shared" si="5"/>
-        <v>6.2322527359074975</v>
+        <v>-55.412451361867703</v>
       </c>
       <c r="T90">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U90" s="4">
         <f t="shared" si="7"/>
-        <v>4.6236482930036522E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -7259,19 +7259,19 @@
       </c>
       <c r="R91">
         <f t="shared" si="4"/>
-        <v>8.8294314381270897</v>
+        <v>1.66351606805293</v>
       </c>
       <c r="S91">
         <f t="shared" si="5"/>
-        <v>3.2140852650597802</v>
+        <v>-61.689981096408324</v>
       </c>
       <c r="T91">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U91" s="4">
         <f t="shared" si="7"/>
-        <v>2.3844989089964942E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -7328,19 +7328,19 @@
       </c>
       <c r="R92">
         <f t="shared" si="4"/>
-        <v>8.1325301204819276</v>
+        <v>1.7419354838709677</v>
       </c>
       <c r="S92">
         <f t="shared" si="5"/>
-        <v>6.2169574851128679</v>
+        <v>-56.292473118279567</v>
       </c>
       <c r="T92">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U92" s="4">
         <f t="shared" si="7"/>
-        <v>4.6123008937205334E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -7397,19 +7397,19 @@
       </c>
       <c r="R93">
         <f t="shared" si="4"/>
-        <v>7.870967741935484</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="S93">
         <f t="shared" si="5"/>
-        <v>6.0586874304783107</v>
+        <v>-61.769230769230766</v>
       </c>
       <c r="T93">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U93" s="4">
         <f t="shared" si="7"/>
-        <v>4.4948818642051802E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -7466,19 +7466,19 @@
       </c>
       <c r="R94">
         <f t="shared" si="4"/>
-        <v>7.8468899521531101</v>
+        <v>0.97098875074008284</v>
       </c>
       <c r="S94">
         <f t="shared" si="5"/>
-        <v>2.4669196502227373</v>
+        <v>-81.26110124333924</v>
       </c>
       <c r="T94">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U94" s="4">
         <f t="shared" si="7"/>
-        <v>1.8301839339749819E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -7535,19 +7535,19 @@
       </c>
       <c r="R95">
         <f t="shared" si="4"/>
-        <v>8.4776119402985071</v>
+        <v>1.8216805644644003</v>
       </c>
       <c r="S95">
         <f t="shared" si="5"/>
-        <v>4.9920329387545062</v>
+        <v>-56.157793457344447</v>
       </c>
       <c r="T95">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U95" s="4">
         <f t="shared" si="7"/>
-        <v>3.703541167851776E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -7604,19 +7604,19 @@
       </c>
       <c r="R96">
         <f t="shared" si="4"/>
-        <v>8.27683615819209</v>
+        <v>1.9001297016861218</v>
       </c>
       <c r="S96">
         <f t="shared" si="5"/>
-        <v>6.1673420351970938</v>
+        <v>-53.18914829226113</v>
       </c>
       <c r="T96">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U96" s="4">
         <f t="shared" si="7"/>
-        <v>4.5754916691863698E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -7673,19 +7673,19 @@
       </c>
       <c r="R97">
         <f t="shared" si="4"/>
-        <v>8.6475409836065573</v>
+        <v>5.4288164665523153</v>
       </c>
       <c r="S97">
         <f t="shared" si="5"/>
-        <v>13.338510457885812</v>
+        <v>-1.2951686678101773</v>
       </c>
       <c r="T97">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U97" s="4">
         <f t="shared" si="7"/>
-        <v>9.8957124691822634E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -7746,15 +7746,15 @@
       </c>
       <c r="S98">
         <f t="shared" si="5"/>
-        <v>40.165658634097589</v>
+        <v>9.9328384588193703</v>
       </c>
       <c r="T98">
         <f t="shared" si="6"/>
-        <v>110.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U98" s="4">
         <f t="shared" si="7"/>
-        <v>0.36403920212173041</v>
+        <v>0.29798515376458118</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7811,19 +7811,19 @@
       </c>
       <c r="R99">
         <f t="shared" si="4"/>
-        <v>7.5138121546961329</v>
+        <v>0.78476630121177149</v>
       </c>
       <c r="S99">
         <f t="shared" si="5"/>
-        <v>1.3568298723566414</v>
+        <v>-88.466243508366986</v>
       </c>
       <c r="T99">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U99" s="4">
         <f t="shared" si="7"/>
-        <v>1.0066190170807706E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -7880,19 +7880,19 @@
       </c>
       <c r="R100">
         <f t="shared" si="4"/>
-        <v>7.0329670329670328</v>
+        <v>6.5306122448979593</v>
       </c>
       <c r="S100">
         <f t="shared" si="5"/>
-        <v>38.262106858658591</v>
+        <v>9.5408163265306118</v>
       </c>
       <c r="T100">
         <f t="shared" si="6"/>
-        <v>112.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U100" s="4">
         <f t="shared" si="7"/>
-        <v>0.34010761652140969</v>
+        <v>0.28622448979591841</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7949,15 +7949,15 @@
       </c>
       <c r="R101">
         <f t="shared" si="4"/>
-        <v>5.4867256637168138</v>
+        <v>0.33935413245758073</v>
       </c>
       <c r="S101">
         <f t="shared" si="5"/>
-        <v>-3.6298138541348752</v>
+        <v>-105.7840722495895</v>
       </c>
       <c r="T101">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U101" s="4">
         <f t="shared" si="7"/>
@@ -8018,19 +8018,19 @@
       </c>
       <c r="R102">
         <f t="shared" si="4"/>
-        <v>8.15</v>
+        <v>0.96221959858323491</v>
       </c>
       <c r="S102">
         <f t="shared" si="5"/>
-        <v>1.9037988505747139</v>
+        <v>-82.394431326249503</v>
       </c>
       <c r="T102">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U102" s="4">
         <f t="shared" si="7"/>
-        <v>1.4124100351332002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -8087,19 +8087,19 @@
       </c>
       <c r="R103">
         <f t="shared" si="4"/>
-        <v>8.6274509803921564</v>
+        <v>1.9730941704035874</v>
       </c>
       <c r="S103">
         <f t="shared" si="5"/>
-        <v>4.7294568402073498</v>
+        <v>-53.780269058295964</v>
       </c>
       <c r="T103">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U103" s="4">
         <f t="shared" si="7"/>
-        <v>3.508738488744069E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -8156,19 +8156,19 @@
       </c>
       <c r="R104">
         <f t="shared" si="4"/>
-        <v>7.4409448818897639</v>
+        <v>1.1482381530984205</v>
       </c>
       <c r="S104">
         <f t="shared" si="5"/>
-        <v>4.8086704679156504</v>
+        <v>-73.174564601053063</v>
       </c>
       <c r="T104">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U104" s="4">
         <f t="shared" si="7"/>
-        <v>3.567506316374984E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -8225,19 +8225,19 @@
       </c>
       <c r="R105">
         <f t="shared" si="4"/>
-        <v>8.2584269662921344</v>
+        <v>1.8918918918918919</v>
       </c>
       <c r="S105">
         <f t="shared" si="5"/>
-        <v>6.0880989280640607</v>
+        <v>-53.918918918918926</v>
       </c>
       <c r="T105">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U105" s="4">
         <f t="shared" si="7"/>
-        <v>4.5167019710541094E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -8294,19 +8294,19 @@
       </c>
       <c r="R106">
         <f t="shared" si="4"/>
-        <v>8.0434782608695645</v>
+        <v>2.8988603988603989</v>
       </c>
       <c r="S106">
         <f t="shared" si="5"/>
-        <v>11.730809595202405</v>
+        <v>-29.469729344729345</v>
       </c>
       <c r="T106">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U106" s="4">
         <f t="shared" si="7"/>
-        <v>8.7029746800713695E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -8363,19 +8363,19 @@
       </c>
       <c r="R107">
         <f t="shared" si="4"/>
-        <v>8.0094786729857823</v>
+        <v>0.98427489807804314</v>
       </c>
       <c r="S107">
         <f t="shared" si="5"/>
-        <v>1.8493544696845905</v>
+        <v>-83.094933022714031</v>
       </c>
       <c r="T107">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U107" s="4">
         <f t="shared" si="7"/>
-        <v>1.372018273208031E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -8432,19 +8432,19 @@
       </c>
       <c r="R108">
         <f t="shared" si="4"/>
-        <v>8.3939393939393945</v>
+        <v>1.7643312101910829</v>
       </c>
       <c r="S108">
         <f t="shared" si="5"/>
-        <v>5.0522605363984674</v>
+        <v>-57.64968152866242</v>
       </c>
       <c r="T108">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U108" s="4">
         <f t="shared" si="7"/>
-        <v>3.74822344259872E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -8501,19 +8501,19 @@
       </c>
       <c r="R109">
         <f t="shared" si="4"/>
-        <v>8.0519480519480524</v>
+        <v>1.1157768446310738</v>
       </c>
       <c r="S109">
         <f t="shared" si="5"/>
-        <v>2.946260635915809</v>
+        <v>-76.700459908018402</v>
       </c>
       <c r="T109">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U109" s="4">
         <f t="shared" si="7"/>
-        <v>2.1858023955782943E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -8570,19 +8570,19 @@
       </c>
       <c r="R110">
         <f t="shared" si="4"/>
-        <v>7.9238754325259517</v>
+        <v>1.4040465971796443</v>
       </c>
       <c r="S110">
         <f t="shared" si="5"/>
-        <v>4.7662570099033541</v>
+        <v>-67.478234212139796</v>
       </c>
       <c r="T110">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U110" s="4">
         <f t="shared" si="7"/>
-        <v>3.5360401802844069E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -8639,19 +8639,19 @@
       </c>
       <c r="R111">
         <f t="shared" si="4"/>
-        <v>8.4640522875816995</v>
+        <v>7.9124236252545828</v>
       </c>
       <c r="S111">
         <f t="shared" si="5"/>
-        <v>19.883990684396363</v>
+        <v>5.8452138492871679</v>
       </c>
       <c r="T111">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U111" s="4">
         <f t="shared" si="7"/>
-        <v>0.14751741221326226</v>
+        <v>0.17535641547861505</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -8708,19 +8708,19 @@
       </c>
       <c r="R112">
         <f t="shared" si="4"/>
-        <v>7.7659574468085104</v>
+        <v>2.0334261838440111</v>
       </c>
       <c r="S112">
         <f t="shared" si="5"/>
-        <v>10.378796771826854</v>
+        <v>-43.816155988857943</v>
       </c>
       <c r="T112">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U112" s="4">
         <f t="shared" si="7"/>
-        <v>7.6999293852452189E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -8777,19 +8777,19 @@
       </c>
       <c r="R113">
         <f t="shared" si="4"/>
-        <v>7.5652173913043477</v>
+        <v>2.4438202247191012</v>
       </c>
       <c r="S113">
         <f t="shared" si="5"/>
-        <v>13.259210394802603</v>
+        <v>-35.514044943820224</v>
       </c>
       <c r="T113">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U113" s="4">
         <f t="shared" si="7"/>
-        <v>9.8368805159790101E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -8846,19 +8846,19 @@
       </c>
       <c r="R114">
         <f t="shared" si="4"/>
-        <v>7.1092436974789912</v>
+        <v>3.2364192807957153</v>
       </c>
       <c r="S114">
         <f t="shared" si="5"/>
-        <v>21.812916062976921</v>
+        <v>-17.585309869931141</v>
       </c>
       <c r="T114">
         <f t="shared" si="6"/>
-        <v>129.83333333333331</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U114" s="4">
         <f t="shared" si="7"/>
-        <v>0.16800705568403279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -8915,19 +8915,19 @@
       </c>
       <c r="R115">
         <f t="shared" si="4"/>
-        <v>8.1174089068825914</v>
+        <v>2.8766140602582495</v>
       </c>
       <c r="S115">
         <f t="shared" si="5"/>
-        <v>11.256163618595561</v>
+        <v>-29.680774748923959</v>
       </c>
       <c r="T115">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U115" s="4">
         <f t="shared" si="7"/>
-        <v>8.3508394004998293E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -8984,19 +8984,19 @@
       </c>
       <c r="R116">
         <f t="shared" si="4"/>
-        <v>8.5462555066079293</v>
+        <v>1.1665664461815994</v>
       </c>
       <c r="S116">
         <f t="shared" si="5"/>
-        <v>2.1986632234543539</v>
+        <v>-76.261976347965529</v>
       </c>
       <c r="T116">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U116" s="4">
         <f t="shared" si="7"/>
-        <v>1.631167074057107E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -9053,19 +9053,19 @@
       </c>
       <c r="R117">
         <f t="shared" si="4"/>
-        <v>8.2784810126582276</v>
+        <v>2.1902210314802413</v>
       </c>
       <c r="S117">
         <f t="shared" si="5"/>
-        <v>7.4525942092245039</v>
+        <v>-45.426881000223261</v>
       </c>
       <c r="T117">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U117" s="4">
         <f t="shared" si="7"/>
-        <v>5.529007881114472E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -9122,19 +9122,19 @@
       </c>
       <c r="R118">
         <f t="shared" si="4"/>
-        <v>8.3547557840616964</v>
+        <v>2.162341982701264</v>
       </c>
       <c r="S118">
         <f t="shared" si="5"/>
-        <v>6.9030286913098742</v>
+        <v>-46.634065202927481</v>
       </c>
       <c r="T118">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U118" s="4">
         <f t="shared" si="7"/>
-        <v>5.1212905152638322E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -9191,19 +9191,19 @@
       </c>
       <c r="R119">
         <f t="shared" si="4"/>
-        <v>8.3106267029972756</v>
+        <v>1.9741100323624596</v>
       </c>
       <c r="S119">
         <f t="shared" si="5"/>
-        <v>6.1871840646434277</v>
+        <v>-52.034519956850062</v>
       </c>
       <c r="T119">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U119" s="4">
         <f t="shared" si="7"/>
-        <v>4.5902122797692319E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -9260,19 +9260,19 @@
       </c>
       <c r="R120">
         <f t="shared" si="4"/>
-        <v>8.0067567567567561</v>
+        <v>1.4886934673366834</v>
       </c>
       <c r="S120">
         <f t="shared" si="5"/>
-        <v>5.3400590245417865</v>
+        <v>-63.551088777219434</v>
       </c>
       <c r="T120">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U120" s="4">
         <f t="shared" si="7"/>
-        <v>3.9617383696757463E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -9329,19 +9329,19 @@
       </c>
       <c r="R121">
         <f t="shared" si="4"/>
-        <v>8.419452887537993</v>
+        <v>1.7654557042702359</v>
       </c>
       <c r="S121">
         <f t="shared" si="5"/>
-        <v>4.9720015372253128</v>
+        <v>-57.641810070108349</v>
       </c>
       <c r="T121">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U121" s="4">
         <f t="shared" si="7"/>
-        <v>3.6886800639441469E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -9398,19 +9398,19 @@
       </c>
       <c r="R122">
         <f t="shared" si="4"/>
-        <v>8.25</v>
+        <v>2.1941489361702127</v>
       </c>
       <c r="S122">
         <f t="shared" si="5"/>
-        <v>7.4883908045977021</v>
+        <v>-45.794326241134755</v>
       </c>
       <c r="T122">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U122" s="4">
         <f t="shared" si="7"/>
-        <v>5.5555650305283637E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -9467,19 +9467,19 @@
       </c>
       <c r="R123">
         <f t="shared" si="4"/>
-        <v>8.1781376518218618</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="S123">
         <f t="shared" si="5"/>
-        <v>10.589417841686448</v>
+        <v>-30.952380952380953</v>
       </c>
       <c r="T123">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U123" s="4">
         <f t="shared" si="7"/>
-        <v>7.856187128856304E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -9536,19 +9536,19 @@
       </c>
       <c r="R124">
         <f t="shared" si="4"/>
-        <v>8.0930232558139537</v>
+        <v>1.0363311494937464</v>
       </c>
       <c r="S124">
         <f t="shared" si="5"/>
-        <v>2.4391766907244068</v>
+        <v>-79.477863807822118</v>
       </c>
       <c r="T124">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U124" s="4">
         <f t="shared" si="7"/>
-        <v>1.8096016994663795E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -9605,19 +9605,19 @@
       </c>
       <c r="R125">
         <f t="shared" si="4"/>
-        <v>7.8365384615384617</v>
+        <v>2.214673913043478</v>
       </c>
       <c r="S125">
         <f t="shared" si="5"/>
-        <v>10.123010610079577</v>
+        <v>-42.559782608695649</v>
       </c>
       <c r="T125">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U125" s="4">
         <f t="shared" si="7"/>
-        <v>7.5101640948675108E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -9674,19 +9674,19 @@
       </c>
       <c r="R126">
         <f t="shared" si="4"/>
-        <v>8.4090909090909083</v>
+        <v>1.6187499999999999</v>
       </c>
       <c r="S126">
         <f t="shared" si="5"/>
-        <v>4.3152037617554893</v>
+        <v>-62.300624999999997</v>
       </c>
       <c r="T126">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U126" s="4">
         <f t="shared" si="7"/>
-        <v>3.2014081187768835E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -9743,19 +9743,19 @@
       </c>
       <c r="R127">
         <f t="shared" si="4"/>
-        <v>7.2350230414746548</v>
+        <v>0.91438555620267914</v>
       </c>
       <c r="S127">
         <f t="shared" si="5"/>
-        <v>2.7071349118067713</v>
+        <v>-83.284799068142107</v>
       </c>
       <c r="T127">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U127" s="4">
         <f t="shared" si="7"/>
-        <v>2.008397323457287E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -9812,19 +9812,19 @@
       </c>
       <c r="R128">
         <f t="shared" si="4"/>
-        <v>7.8039215686274508</v>
+        <v>1.202416918429003</v>
       </c>
       <c r="S128">
         <f t="shared" si="5"/>
-        <v>3.9802028397565947</v>
+        <v>-73.31319234642497</v>
       </c>
       <c r="T128">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U128" s="4">
         <f t="shared" si="7"/>
-        <v>2.9528741605452789E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -9881,15 +9881,15 @@
       </c>
       <c r="R129">
         <f t="shared" si="4"/>
-        <v>7.0642201834862384</v>
+        <v>0.42801556420233461</v>
       </c>
       <c r="S129">
         <f t="shared" si="5"/>
-        <v>-1.7739533902773357</v>
+        <v>-102.8988326848249</v>
       </c>
       <c r="T129">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U129" s="4">
         <f t="shared" si="7"/>
@@ -9950,15 +9950,15 @@
       </c>
       <c r="R130">
         <f t="shared" si="4"/>
-        <v>6.145833333333333</v>
+        <v>0.32524807056229327</v>
       </c>
       <c r="S130">
         <f t="shared" si="5"/>
-        <v>-3.2281968390804563</v>
+        <v>-106.26102535832413</v>
       </c>
       <c r="T130">
         <f t="shared" si="6"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U130" s="4">
         <f t="shared" si="7"/>
@@ -10018,20 +10018,20 @@
         <v>259</v>
       </c>
       <c r="R131">
-        <f t="shared" ref="R131:R146" si="8">10*(O131-N131)/(P131-N131)</f>
-        <v>8.1215469613259668</v>
+        <f t="shared" ref="R131:R146" si="8">IF(O131&gt;V131,10*(O131-N131)/(P131+N131),10-10*(O131-N131)/(P131+N131))</f>
+        <v>0.85614443797320905</v>
       </c>
       <c r="S131">
         <f t="shared" ref="S131:S146" si="9">IF(O131&lt;V131,(R131/60)*(P131-$V$2),($V$2-N131)*(10-R131)/60)</f>
-        <v>1.2756207531593338</v>
+        <v>-86.561832653853628</v>
       </c>
       <c r="T131">
         <f t="shared" ref="T131:T147" si="10">IF(O131&gt;$V$2,$V$2*(10/60),O131*(10/60))</f>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U131" s="4">
         <f t="shared" ref="U131:U147" si="11">IF(S131/T131&gt;0,S131/T131,0)</f>
-        <v>9.4637075352919844E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -10088,19 +10088,19 @@
       </c>
       <c r="R132">
         <f t="shared" si="8"/>
-        <v>7.6694915254237293</v>
+        <v>1.0748218527315914</v>
       </c>
       <c r="S132">
         <f t="shared" si="9"/>
-        <v>3.2916423144360039</v>
+        <v>-77.946555819477425</v>
       </c>
       <c r="T132">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U132" s="4">
         <f t="shared" si="11"/>
-        <v>2.4420377371144077E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10157,19 +10157,19 @@
       </c>
       <c r="R133">
         <f t="shared" si="8"/>
-        <v>7.7696078431372548</v>
+        <v>2.1418918918918921</v>
       </c>
       <c r="S133">
         <f t="shared" si="9"/>
-        <v>10.138798737885962</v>
+        <v>-44.005405405405405</v>
       </c>
       <c r="T133">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U133" s="4">
         <f t="shared" si="11"/>
-        <v>7.5218771548596269E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -10226,19 +10226,19 @@
       </c>
       <c r="R134">
         <f t="shared" si="8"/>
-        <v>6.4556962025316453</v>
+        <v>2.6943396226415093</v>
       </c>
       <c r="S134">
         <f t="shared" si="9"/>
-        <v>24.972268296231636</v>
+        <v>-22.647547169811322</v>
       </c>
       <c r="T134">
         <f t="shared" si="10"/>
-        <v>123.83333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U134" s="4">
         <f t="shared" si="11"/>
-        <v>0.2016603092562447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -10295,19 +10295,19 @@
       </c>
       <c r="R135">
         <f t="shared" si="8"/>
-        <v>8.2068206820682068</v>
+        <v>7.4674674674674675</v>
       </c>
       <c r="S135">
         <f t="shared" si="9"/>
-        <v>22.825523816749492</v>
+        <v>6.5423757090423758</v>
       </c>
       <c r="T135">
         <f t="shared" si="10"/>
-        <v>131.83333333333331</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U135" s="4">
         <f t="shared" si="11"/>
-        <v>0.17313924513337164</v>
+        <v>0.19627127127127131</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -10364,19 +10364,19 @@
       </c>
       <c r="R136">
         <f t="shared" si="8"/>
-        <v>5.8574610244988863</v>
+        <v>1.8353105373342637</v>
       </c>
       <c r="S136">
         <f t="shared" si="9"/>
-        <v>21.868796559404043</v>
+        <v>-39.73482205163991</v>
       </c>
       <c r="T136">
         <f t="shared" si="10"/>
-        <v>125.83333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U136" s="4">
         <f t="shared" si="11"/>
-        <v>0.17379176073698577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -10433,19 +10433,19 @@
       </c>
       <c r="R137">
         <f t="shared" si="8"/>
-        <v>6.3105175292153586</v>
+        <v>2.9554339327599686</v>
       </c>
       <c r="S137">
         <f t="shared" si="9"/>
-        <v>28.823763744171327</v>
+        <v>-16.437320823560075</v>
       </c>
       <c r="T137">
         <f t="shared" si="10"/>
-        <v>119.66666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U137" s="4">
         <f t="shared" si="11"/>
-        <v>0.24086710649725346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -10502,19 +10502,19 @@
       </c>
       <c r="R138">
         <f t="shared" si="8"/>
-        <v>8.1199538638985</v>
+        <v>6.8019323671497585</v>
       </c>
       <c r="S138">
         <f t="shared" si="9"/>
-        <v>22.709228546049935</v>
+        <v>6.1829307568438008</v>
       </c>
       <c r="T138">
         <f t="shared" si="10"/>
-        <v>131.33333333333331</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U138" s="4">
         <f t="shared" si="11"/>
-        <v>0.17291290771104015</v>
+        <v>0.18548792270531406</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10571,19 +10571,19 @@
       </c>
       <c r="R139">
         <f t="shared" si="8"/>
-        <v>7.316239316239316</v>
+        <v>3.2253202712886209</v>
       </c>
       <c r="S139">
         <f t="shared" si="9"/>
-        <v>19.580039296591028</v>
+        <v>-19.307837226827431</v>
       </c>
       <c r="T139">
         <f t="shared" si="10"/>
-        <v>133.16666666666666</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U139" s="4">
         <f t="shared" si="11"/>
-        <v>0.14703408733359971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -10640,19 +10640,19 @@
       </c>
       <c r="R140">
         <f t="shared" si="8"/>
-        <v>6.7720090293453721</v>
+        <v>2.0761245674740483</v>
       </c>
       <c r="S140">
         <f t="shared" si="9"/>
-        <v>16.55662541189902</v>
+        <v>-39.751441753171861</v>
       </c>
       <c r="T140">
         <f t="shared" si="10"/>
-        <v>133.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U140" s="4">
         <f t="shared" si="11"/>
-        <v>0.12401966600673424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -10709,19 +10709,19 @@
       </c>
       <c r="R141">
         <f t="shared" si="8"/>
-        <v>7.2222222222222223</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="S141">
         <f t="shared" si="9"/>
-        <v>18.691890166028099</v>
+        <v>-24.296296296296294</v>
       </c>
       <c r="T141">
         <f t="shared" si="10"/>
-        <v>132.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U141" s="4">
         <f t="shared" si="11"/>
-        <v>0.14107086917757056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10778,19 +10778,19 @@
       </c>
       <c r="R142">
         <f t="shared" si="8"/>
-        <v>7.371428571428571</v>
+        <v>2.7982646420824295</v>
       </c>
       <c r="S142">
         <f t="shared" si="9"/>
-        <v>16.636440065681448</v>
+        <v>-27.486623282718725</v>
       </c>
       <c r="T142">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U142" s="4">
         <f t="shared" si="11"/>
-        <v>0.12342414688698418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -10847,19 +10847,19 @@
       </c>
       <c r="R143">
         <f t="shared" si="8"/>
-        <v>6.588021778584392</v>
+        <v>2.6948775055679288</v>
       </c>
       <c r="S143">
         <f t="shared" si="9"/>
-        <v>23.357540104720783</v>
+        <v>-24.106904231625833</v>
       </c>
       <c r="T143">
         <f t="shared" si="10"/>
-        <v>126.83333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U143" s="4">
         <f t="shared" si="11"/>
-        <v>0.18415931751422432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -10916,19 +10916,19 @@
       </c>
       <c r="R144">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>2.3379310344827586</v>
       </c>
       <c r="S144">
         <f t="shared" si="9"/>
-        <v>12.906034482758624</v>
+        <v>-38.182643678160922</v>
       </c>
       <c r="T144">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U144" s="4">
         <f t="shared" si="11"/>
-        <v>9.5748627076440329E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -10985,19 +10985,19 @@
       </c>
       <c r="R145">
         <f t="shared" si="8"/>
-        <v>8.3661971830985919</v>
+        <v>1.9148936170212767</v>
       </c>
       <c r="S145">
         <f t="shared" si="9"/>
-        <v>5.7385915492957746</v>
+        <v>-53.631205673758863</v>
       </c>
       <c r="T145">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U145" s="4">
         <f t="shared" si="11"/>
-        <v>4.2574058122312346E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -11054,19 +11054,19 @@
       </c>
       <c r="R146">
         <f t="shared" si="8"/>
-        <v>8.7341772151898738</v>
+        <v>2.3015343562374917</v>
       </c>
       <c r="S146">
         <f t="shared" si="9"/>
-        <v>5.4165575440128038</v>
+        <v>-45.164331776740049</v>
       </c>
       <c r="T146">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U146" s="4">
         <f t="shared" si="11"/>
-        <v>4.0184918846498101E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
       <c r="Q147" s="2"/>
       <c r="T147">
         <f t="shared" si="10"/>
-        <v>134.79080459770114</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U147" s="4">
         <f t="shared" si="11"/>
